--- a/Input/controlTotals/FLUAM_Growth_Controls.xlsx
+++ b/Input/controlTotals/FLUAM_Growth_Controls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Models\StateWide\TSM_Legacy\FLUAM\Input\controlTotals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9BBA59-BB95-485C-A8C2-A9F20E4E811C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43A7AD0-010F-4E1F-AE9E-79D011438472}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A4793C3-9AA2-4A53-B6D8-945A8B7F0D49}"/>
+    <workbookView xWindow="2580" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{0A4793C3-9AA2-4A53-B6D8-945A8B7F0D49}"/>
   </bookViews>
   <sheets>
     <sheet name="BEBR_Increments" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="83">
   <si>
     <t>Name</t>
   </si>
@@ -327,11 +327,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -650,27 +651,27 @@
   <dimension ref="A1:R68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -680,46 +681,46 @@
       <c r="B1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>82</v>
       </c>
       <c r="Q1" s="2"/>
@@ -732,46 +733,46 @@
       <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>5491.0247240999161</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>13096</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>4505.2041444841598</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>10371</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="4">
         <v>3808.9453221547883</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="4">
         <v>9871</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="4">
         <v>3235.5557037658873</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="4">
         <v>8748</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="4">
         <v>2866.9480919444613</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="4">
         <v>7676</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="4">
         <v>2580.2532827500254</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="4">
         <v>7305</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="4">
         <v>1743.7870465907617</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="4">
         <v>7377</v>
       </c>
     </row>
@@ -782,46 +783,46 @@
       <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>420.89162379242771</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>1076</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>393.66324906540285</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>859</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <v>360.85797830995216</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="4">
         <v>878</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="4">
         <v>262.4421660436019</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="4">
         <v>883</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="4">
         <v>262.44216604360372</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="4">
         <v>881</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="4">
         <v>196.83162453270052</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="4">
         <v>918</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="4">
         <v>154.95022886824518</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="4">
         <v>989</v>
       </c>
     </row>
@@ -832,46 +833,46 @@
       <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>2117.5355720962543</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>7271</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>4528.8333044832834</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>7689</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <v>3508.8258034735481</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="4">
         <v>7691</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="4">
         <v>3019.2222029888653</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="4">
         <v>7307</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="4">
         <v>2529.6186025041825</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="4">
         <v>6970</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="4">
         <v>2080.8153020598984</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="4">
         <v>7077</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="4">
         <v>2297.0568922739621</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="4">
         <v>7329</v>
       </c>
     </row>
@@ -882,46 +883,46 @@
       <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>449.2090809227393</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>750</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>69.644818747710815</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>451</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <v>34.822409373855407</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="4">
         <v>433</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="4">
         <v>34.822409373857226</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="4">
         <v>392</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="4">
         <v>34.822409373855407</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="4">
         <v>378</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="4">
         <v>34.822409373855407</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="4">
         <v>400</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="4">
         <v>0</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="4">
         <v>437</v>
       </c>
     </row>
@@ -932,46 +933,46 @@
       <c r="B6" s="3">
         <v>5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>15717.518804943451</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>24972</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>13587.155385124817</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>15179</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4">
         <v>11108.994968969957</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="4">
         <v>14449</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="4">
         <v>9570.8264348049415</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="4">
         <v>12583</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="4">
         <v>8545.3807453615009</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="4">
         <v>10830</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="4">
         <v>7776.2964782789932</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="4">
         <v>10258</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="4">
         <v>5414.0683942362084</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="4">
         <v>10423</v>
       </c>
     </row>
@@ -982,46 +983,46 @@
       <c r="B7" s="3">
         <v>6</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>45104.828121006838</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>119550</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>38482.611976685585</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>113414</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <v>30973.809639771353</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="4">
         <v>116665</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="4">
         <v>24520.93263148563</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="4">
         <v>115350</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="4">
         <v>21626.915064133238</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="4">
         <v>113706</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="4">
         <v>20414.556353485677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="4">
         <v>116685</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="4">
         <v>12140.142972739879</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="4">
         <v>122424</v>
       </c>
     </row>
@@ -1032,46 +1033,46 @@
       <c r="B8" s="3">
         <v>7</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>122.6775036084955</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>13</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>209.70513437349564</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>131</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
         <v>139.80342291566467</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="4">
         <v>110</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="4">
         <v>139.80342291566467</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="4">
         <v>68</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="4">
         <v>139.80342291566376</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="4">
         <v>35</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="4">
         <v>104.85256718674827</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="4">
         <v>14</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="4">
         <v>112.89126400439909</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="4">
         <v>7</v>
       </c>
     </row>
@@ -1082,46 +1083,46 @@
       <c r="B9" s="3">
         <v>8</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>7654.2068134090368</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>5918</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>5685.5331725908036</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>5486</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="4">
         <v>4668.6085400948941</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="4">
         <v>5442</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="4">
         <v>3929.0269891887729</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="4">
         <v>5102</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="4">
         <v>3466.7885198724398</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="4">
         <v>4809</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="4">
         <v>3235.6692852142733</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="4">
         <v>4851</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="4">
         <v>1824.4552383915434</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="4">
         <v>5068</v>
       </c>
     </row>
@@ -1132,46 +1133,46 @@
       <c r="B10" s="3">
         <v>9</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>3202.7551819421788</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>3327</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>3022.7440088762669</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>3246</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="4">
         <v>2616.7037688779528</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="4">
         <v>3135</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="4">
         <v>2300.8946933237166</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="4">
         <v>2792</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="4">
         <v>1804.6232888813538</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="4">
         <v>2462</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="4">
         <v>1579.0453777711809</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="4">
         <v>2342.9999999999927</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="4">
         <v>1212.2556943060481</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="4">
         <v>2363.0000000000073</v>
       </c>
     </row>
@@ -1182,46 +1183,46 @@
       <c r="B11" s="3">
         <v>10</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>6883.9455377415143</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>9085</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>6875.5784317135112</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="4">
         <v>8087</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="4">
         <v>6038.8678289123927</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="4">
         <v>8645</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="4">
         <v>5093.0210605285247</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="4">
         <v>8863</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="4">
         <v>4365.4466233101703</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="4">
         <v>9024</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="4">
         <v>3965.2806828400644</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="4">
         <v>9409</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="4">
         <v>3230.0667140309088</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="4">
         <v>10028</v>
       </c>
     </row>
@@ -1232,46 +1233,46 @@
       <c r="B12" s="3">
         <v>11</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <v>16214.815806772502</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
         <v>25793</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <v>14801.975555697776</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <v>25441</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="4">
         <v>12930.939319724712</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="4">
         <v>26733</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="4">
         <v>10685.695836557104</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="4">
         <v>27120</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="4">
         <v>8980.9739326705458</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="4">
         <v>27479</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="4">
         <v>8024.6665231732186</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="4">
         <v>28822</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="4">
         <v>5873.9450187414186</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="4">
         <v>30659</v>
       </c>
     </row>
@@ -1282,46 +1283,46 @@
       <c r="B13" s="3">
         <v>12</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="4">
         <v>1056.5861537784403</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="4">
         <v>1978</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="4">
         <v>1080.0492936050359</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="4">
         <v>2232</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="4">
         <v>968.32005633554945</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="4">
         <v>2194</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="4">
         <v>782.10466088640169</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="4">
         <v>2030</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="4">
         <v>633.13234452709003</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="4">
         <v>1874</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="4">
         <v>558.64618634743238</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="4">
         <v>1816</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="4">
         <v>444.80650792951928</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="4">
         <v>1824</v>
       </c>
     </row>
@@ -1332,46 +1333,46 @@
       <c r="B14" s="3">
         <v>13</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="4">
         <v>72378.486934490385</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="4">
         <v>156126</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="4">
         <v>62282.875459600822</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="4">
         <v>146712</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="4">
         <v>52245.120489055058</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="4">
         <v>149905</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="4">
         <v>43810.618048527278</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="4">
         <v>145877</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="4">
         <v>38791.740563254338</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="4">
         <v>140985</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="4">
         <v>33563.743182761827</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="4">
         <v>142026</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="4">
         <v>23213.93485746067</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="4">
         <v>147092</v>
       </c>
     </row>
@@ -1382,46 +1383,46 @@
       <c r="B15" s="3">
         <v>14</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="4">
         <v>402.30957241855322</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="4">
         <v>841</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="4">
         <v>296.05773931046315</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="4">
         <v>610</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="4">
         <v>263.16243494263472</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="4">
         <v>591</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="4">
         <v>230.26713057480629</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="4">
         <v>539</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="4">
         <v>197.37182620697422</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="4">
         <v>499.99999999999818</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="4">
         <v>164.47652183914761</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="4">
         <v>489.00000000000182</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="4">
         <v>107.12904122456348</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="4">
         <v>506</v>
       </c>
     </row>
@@ -1432,46 +1433,46 @@
       <c r="B16" s="3">
         <v>15</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="4">
         <v>50.938790381345825</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="4">
         <v>277</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="4">
         <v>77.179985426280837</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="4">
         <v>152</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="4">
         <v>38.589992713141328</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="4">
         <v>140</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="4">
         <v>38.589992713140418</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="4">
         <v>123</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="4">
         <v>38.589992713140418</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="4">
         <v>110</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="4">
         <v>38.589992713140418</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="4">
         <v>115</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="4">
         <v>29.328394461987045</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16" s="4">
         <v>123</v>
       </c>
     </row>
@@ -1482,46 +1483,46 @@
       <c r="B17" s="3">
         <v>16</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="4">
         <v>30480.790046975715</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="4">
         <v>70954</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="4">
         <v>25079.181601945311</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="4">
         <v>56309</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="4">
         <v>20167.176288188435</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="4">
         <v>57536</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="4">
         <v>17531.466119831195</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="4">
         <v>55463</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="4">
         <v>15374.975982084288</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="4">
         <v>52850</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="4">
         <v>13777.575880049553</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="4">
         <v>52468</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="4">
         <v>8875.4212002553395</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="4">
         <v>53744</v>
       </c>
     </row>
@@ -1532,46 +1533,46 @@
       <c r="B18" s="3">
         <v>17</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="4">
         <v>6869.8195371142501</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="4">
         <v>16030</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="4">
         <v>5076.8029347372794</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="4">
         <v>11252</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="4">
         <v>4053.5713354879117</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="4">
         <v>10721</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="4">
         <v>3109.049859257706</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="4">
         <v>9315</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="4">
         <v>2597.4340596330294</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="4">
         <v>7842</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="4">
         <v>2203.8834445371176</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="4">
         <v>7051</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18" s="4">
         <v>813.8626720183529</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P18" s="4">
         <v>6623</v>
       </c>
     </row>
@@ -1582,46 +1583,46 @@
       <c r="B19" s="3">
         <v>18</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="4">
         <v>4568.2100381833807</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="4">
         <v>6398</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="4">
         <v>4671.893283869249</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="4">
         <v>6458</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="4">
         <v>4303.0596035637791</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="4">
         <v>7210</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="4">
         <v>3770.2998431225496</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="4">
         <v>7863</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="4">
         <v>3278.5216027152637</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="4">
         <v>8570</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="4">
         <v>3032.6324825116171</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="4">
         <v>9574</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19" s="4">
         <v>2698.3598841014464</v>
       </c>
-      <c r="P19" s="2">
+      <c r="P19" s="4">
         <v>10782</v>
       </c>
     </row>
@@ -1632,46 +1633,46 @@
       <c r="B20" s="3">
         <v>19</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="4">
         <v>96.643581081080811</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="4">
         <v>249</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="4">
         <v>223.02364864864921</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="4">
         <v>216</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="4">
         <v>148.68243243243251</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="4">
         <v>190</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="4">
         <v>148.68243243243251</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="4">
         <v>162</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="4">
         <v>111.51182432432415</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="4">
         <v>147</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="4">
         <v>74.341216216215798</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20" s="4">
         <v>172</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20" s="4">
         <v>89.209459459460049</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P20" s="4">
         <v>190</v>
       </c>
     </row>
@@ -1682,46 +1683,46 @@
       <c r="B21" s="3">
         <v>20</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="4">
         <v>0</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="4">
         <v>982</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="4">
         <v>109.17106488667923</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="4">
         <v>661</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="4">
         <v>36.390354962230049</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="4">
         <v>586</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="4">
         <v>36.390354962226411</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="4">
         <v>477</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="4">
         <v>36.390354962226411</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="4">
         <v>387</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="4">
         <v>36.390354962226411</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="4">
         <v>383</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21" s="4">
         <v>64.896133015972737</v>
       </c>
-      <c r="P21" s="2">
+      <c r="P21" s="4">
         <v>402</v>
       </c>
     </row>
@@ -1732,46 +1733,46 @@
       <c r="B22" s="3">
         <v>21</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="4">
         <v>356.00201912227567</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="4">
         <v>636</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="4">
         <v>333.40459647247462</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="4">
         <v>385</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="4">
         <v>259.31468614525784</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="4">
         <v>369</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="4">
         <v>222.26973098164945</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="4">
         <v>351</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="4">
         <v>222.26973098165035</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="4">
         <v>330</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="4">
         <v>185.22477581804105</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="4">
         <v>338</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22" s="4">
         <v>140.64734643783322</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P22" s="4">
         <v>358</v>
       </c>
     </row>
@@ -1782,46 +1783,46 @@
       <c r="B23" s="3">
         <v>22</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="4">
         <v>123.02800902513081</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="4">
         <v>575</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="4">
         <v>141.81903057651925</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="4">
         <v>246</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="4">
         <v>106.36427293238921</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="4">
         <v>240.00000000000045</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="4">
         <v>70.909515288259172</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="4">
         <v>229.99999999999955</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="4">
         <v>70.909515288260081</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="4">
         <v>237</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="4">
         <v>70.909515288259172</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="4">
         <v>245</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23" s="4">
         <v>46.445732513810071</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P23" s="4">
         <v>257</v>
       </c>
     </row>
@@ -1832,46 +1833,46 @@
       <c r="B24" s="3">
         <v>23</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="4">
         <v>18.793955707817986</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="4">
         <v>275</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="4">
         <v>174.01810840572671</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="4">
         <v>349</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="4">
         <v>139.21448672458064</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="4">
         <v>336</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="4">
         <v>139.21448672458155</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="4">
         <v>316</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="4">
         <v>139.21448672458064</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="4">
         <v>318</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="4">
         <v>104.41086504343548</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24" s="4">
         <v>349</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24" s="4">
         <v>151.51176638525158</v>
       </c>
-      <c r="P24" s="2">
+      <c r="P24" s="4">
         <v>388</v>
       </c>
     </row>
@@ -1882,46 +1883,46 @@
       <c r="B25" s="3">
         <v>24</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="4">
         <v>88.197539302802397</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="4">
         <v>0</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="4">
         <v>97.99726589200236</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="4">
         <v>148</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="4">
         <v>32.665755297334726</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="4">
         <v>126</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="4">
         <v>32.665755297333817</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="4">
         <v>116</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="4">
         <v>32.665755297334726</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="4">
         <v>111</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="4">
         <v>32.665755297333817</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="4">
         <v>111</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="4">
         <v>5.4442925495559393</v>
       </c>
-      <c r="P25" s="2">
+      <c r="P25" s="4">
         <v>128</v>
       </c>
     </row>
@@ -1932,46 +1933,46 @@
       <c r="B26" s="3">
         <v>25</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="4">
         <v>0</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="4">
         <v>172</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="4">
         <v>0</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="4">
         <v>349</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="4">
         <v>29.831795984807286</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="4">
         <v>283</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="4">
         <v>0</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="4">
         <v>230</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="4">
         <v>0</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="4">
         <v>189</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="4">
         <v>0</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="4">
         <v>198</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26" s="4">
         <v>36.295351781516729</v>
       </c>
-      <c r="P26" s="2">
+      <c r="P26" s="4">
         <v>227</v>
       </c>
     </row>
@@ -1982,46 +1983,46 @@
       <c r="B27" s="3">
         <v>26</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="4">
         <v>695.2296304073916</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="4">
         <v>1621</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="4">
         <v>504.70390592188051</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="4">
         <v>1103</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="4">
         <v>410.07192356152882</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="4">
         <v>1030</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="4">
         <v>378.5279294414122</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="4">
         <v>981</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="4">
         <v>346.98393532129376</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="4">
         <v>945</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="4">
         <v>315.43994120117532</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27" s="4">
         <v>994</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27" s="4">
         <v>201.46097578048284</v>
       </c>
-      <c r="P27" s="2">
+      <c r="P27" s="4">
         <v>1050</v>
       </c>
     </row>
@@ -2032,46 +2033,46 @@
       <c r="B28" s="3">
         <v>27</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="4">
         <v>6195.8229602022475</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="4">
         <v>8877</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="4">
         <v>5870.6473851791961</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="4">
         <v>7984</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="4">
         <v>5204.4746322510473</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="4">
         <v>8675</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="4">
         <v>4538.3018793229276</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="4">
         <v>9075</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="4">
         <v>3830.4933293367794</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28" s="4">
         <v>9458</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28" s="4">
         <v>3539.0427499307261</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28" s="4">
         <v>10111</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28" s="4">
         <v>2856.0768921891868</v>
       </c>
-      <c r="P28" s="2">
+      <c r="P28" s="4">
         <v>11055</v>
       </c>
     </row>
@@ -2082,46 +2083,46 @@
       <c r="B29" s="3">
         <v>28</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="4">
         <v>1452.3181800134989</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="4">
         <v>2681</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="4">
         <v>1473.1150990590322</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="4">
         <v>2303</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="4">
         <v>1213.1536109898007</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="4">
         <v>2240</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="4">
         <v>1039.8459522769626</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="4">
         <v>2015</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="4">
         <v>823.21137888593512</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="4">
         <v>1732</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="4">
         <v>736.55754952951975</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29" s="4">
         <v>1534</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29" s="4">
         <v>552.85143129392236</v>
       </c>
-      <c r="P29" s="2">
+      <c r="P29" s="4">
         <v>1440</v>
       </c>
     </row>
@@ -2132,46 +2133,46 @@
       <c r="B30" s="3">
         <v>29</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="4">
         <v>54486.975192427635</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="4">
         <v>86598</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="4">
         <v>50769.174758197041</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="4">
         <v>72272.999999999884</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="4">
         <v>42513.397099949303</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="4">
         <v>72438.000000000116</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="4">
         <v>35337.814649322536</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="4">
         <v>69291</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="4">
         <v>30284.044213666231</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="4">
         <v>66191</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="4">
         <v>27699.291395429755</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N30" s="4">
         <v>66753</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O30" s="4">
         <v>19924.843577911146</v>
       </c>
-      <c r="P30" s="2">
+      <c r="P30" s="4">
         <v>69767</v>
       </c>
     </row>
@@ -2182,46 +2183,46 @@
       <c r="B31" s="3">
         <v>30</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="4">
         <v>147.38518741835014</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="4">
         <v>212</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="4">
         <v>111.09436237564114</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="4">
         <v>189</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="4">
         <v>111.09436237564023</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="4">
         <v>149</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="4">
         <v>37.031454125213713</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="4">
         <v>100</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="4">
         <v>74.062908250427427</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="4">
         <v>66</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="4">
         <v>74.062908250426517</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="4">
         <v>59</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O31" s="4">
         <v>37.278330486048617</v>
       </c>
-      <c r="P31" s="2">
+      <c r="P31" s="4">
         <v>59</v>
       </c>
     </row>
@@ -2232,46 +2233,46 @@
       <c r="B32" s="3">
         <v>31</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="4">
         <v>6100.1613943038974</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="4">
         <v>7010</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="4">
         <v>5320.1638223350892</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="4">
         <v>6679</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="4">
         <v>4440.7979012879805</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="4">
         <v>6792</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="4">
         <v>3649.3685723455565</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="4">
         <v>6544</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="4">
         <v>3077.7807236649387</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="4">
         <v>6249</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="4">
         <v>2726.0343552460836</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N32" s="4">
         <v>6244</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O32" s="4">
         <v>1780.1297461730428</v>
       </c>
-      <c r="P32" s="2">
+      <c r="P32" s="4">
         <v>6453</v>
       </c>
     </row>
@@ -2282,46 +2283,46 @@
       <c r="B33" s="3">
         <v>32</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="4">
         <v>0</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="4">
         <v>723</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="4">
         <v>176.95905505568953</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="4">
         <v>816</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="4">
         <v>176.95905505569317</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="4">
         <v>732</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="4">
         <v>106.17543303341154</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="4">
         <v>618</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="4">
         <v>106.17543303341517</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="4">
         <v>539</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="4">
         <v>106.17543303341517</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33" s="4">
         <v>551</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O33" s="4">
         <v>167.28529337931104</v>
       </c>
-      <c r="P33" s="2">
+      <c r="P33" s="4">
         <v>590</v>
       </c>
     </row>
@@ -2332,46 +2333,46 @@
       <c r="B34" s="3">
         <v>33</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="4">
         <v>148.99910462153093</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="4">
         <v>262</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="4">
         <v>117.32212962325229</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="4">
         <v>155</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="4">
         <v>78.21475308216759</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="4">
         <v>124</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="4">
         <v>39.107376541084705</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="4">
         <v>102</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="4">
         <v>39.107376541083795</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="4">
         <v>73</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M34" s="4">
         <v>78.2147530821685</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N34" s="4">
         <v>71</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O34" s="4">
         <v>20.726909566774339</v>
       </c>
-      <c r="P34" s="2">
+      <c r="P34" s="4">
         <v>70</v>
       </c>
     </row>
@@ -2382,46 +2383,46 @@
       <c r="B35" s="3">
         <v>34</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="4">
         <v>11.04847645429345</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="4">
         <v>0</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="4">
         <v>61.380424746075732</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="4">
         <v>39</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="4">
         <v>92.070637119113599</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="4">
         <v>18</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="4">
         <v>61.380424746075732</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="4">
         <v>10</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="4">
         <v>30.690212373037866</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35" s="4">
         <v>0</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M35" s="4">
         <v>30.690212373037866</v>
       </c>
-      <c r="N35" s="2">
+      <c r="N35" s="4">
         <v>0</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O35" s="4">
         <v>45.421514312095951</v>
       </c>
-      <c r="P35" s="2">
+      <c r="P35" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2432,46 +2433,46 @@
       <c r="B36" s="3">
         <v>35</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="4">
         <v>18001.244689151499</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="4">
         <v>16780</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="4">
         <v>16887.256806572957</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="4">
         <v>15058</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="4">
         <v>14317.456857746642</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="4">
         <v>15597</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="4">
         <v>12318.723564215092</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="4">
         <v>15425</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="4">
         <v>10687.104549087235</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36" s="4">
         <v>15146</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M36" s="4">
         <v>9626.5521892541437</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N36" s="4">
         <v>15424</v>
       </c>
-      <c r="O36" s="2">
+      <c r="O36" s="4">
         <v>7392.4578527903941</v>
       </c>
-      <c r="P36" s="2">
+      <c r="P36" s="4">
         <v>16061</v>
       </c>
     </row>
@@ -2482,46 +2483,46 @@
       <c r="B37" s="3">
         <v>36</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="4">
         <v>34258.86897100677</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="4">
         <v>43850</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="4">
         <v>32345.446763135551</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="4">
         <v>40043</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="4">
         <v>28438.788907328271</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="4">
         <v>41147</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="4">
         <v>24238.0815354925</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="4">
         <v>40903</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="4">
         <v>21045.54393289733</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37" s="4">
         <v>40918</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M37" s="4">
         <v>19029.204394416127</v>
       </c>
-      <c r="N37" s="2">
+      <c r="N37" s="4">
         <v>43215</v>
       </c>
-      <c r="O37" s="2">
+      <c r="O37" s="4">
         <v>15134.448542828963</v>
       </c>
-      <c r="P37" s="2">
+      <c r="P37" s="4">
         <v>46269</v>
       </c>
     </row>
@@ -2532,46 +2533,46 @@
       <c r="B38" s="3">
         <v>37</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="4">
         <v>5613.7698519562837</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="4">
         <v>14711</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="4">
         <v>5509.6536037096957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="4">
         <v>12393</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="4">
         <v>4415.8253147379291</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="4">
         <v>11884</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="4">
         <v>3524.5578200201853</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="4">
         <v>10758</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="4">
         <v>3119.4362315121107</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38" s="4">
         <v>9759</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M38" s="4">
         <v>2754.8268018548551</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N38" s="4">
         <v>9750</v>
       </c>
-      <c r="O38" s="2">
+      <c r="O38" s="4">
         <v>1920.6814511167468</v>
       </c>
-      <c r="P38" s="2">
+      <c r="P38" s="4">
         <v>10119</v>
       </c>
     </row>
@@ -2582,46 +2583,46 @@
       <c r="B39" s="3">
         <v>38</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="4">
         <v>468.76898734176939</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="4">
         <v>926</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="4">
         <v>528.99278085443075</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="4">
         <v>672</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="4">
         <v>447.60927610759609</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="4">
         <v>592.99999999999818</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="4">
         <v>366.22577136075779</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="4">
         <v>511.00000000000182</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="4">
         <v>284.84226661392677</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L39" s="4">
         <v>437</v>
       </c>
-      <c r="M39" s="2">
+      <c r="M39" s="4">
         <v>284.84226661392313</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N39" s="4">
         <v>417</v>
       </c>
-      <c r="O39" s="2">
+      <c r="O39" s="4">
         <v>223.53335970464104</v>
       </c>
-      <c r="P39" s="2">
+      <c r="P39" s="4">
         <v>414</v>
       </c>
     </row>
@@ -2632,46 +2633,46 @@
       <c r="B40" s="3">
         <v>39</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="4">
         <v>178.49597608645672</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="4">
         <v>143</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="4">
         <v>118.60197746608446</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="4">
         <v>179</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="4">
         <v>88.95148309956312</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="4">
         <v>183</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="4">
         <v>88.95148309956312</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="4">
         <v>181</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40" s="4">
         <v>59.300988733041777</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L40" s="4">
         <v>177</v>
       </c>
-      <c r="M40" s="2">
+      <c r="M40" s="4">
         <v>88.95148309956312</v>
       </c>
-      <c r="N40" s="2">
+      <c r="N40" s="4">
         <v>176</v>
       </c>
-      <c r="O40" s="2">
+      <c r="O40" s="4">
         <v>41.313022150686265</v>
       </c>
-      <c r="P40" s="2">
+      <c r="P40" s="4">
         <v>182</v>
       </c>
     </row>
@@ -2682,46 +2683,46 @@
       <c r="B41" s="3">
         <v>40</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="4">
         <v>110.578125</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="4">
         <v>0</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="4">
         <v>73.71875</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="4">
         <v>140</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="4">
         <v>36.859375</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="4">
         <v>99</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="4">
         <v>36.859375</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="4">
         <v>54</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="4">
         <v>36.859375</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L41" s="4">
         <v>23</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M41" s="4">
         <v>36.859375</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N41" s="4">
         <v>10</v>
       </c>
-      <c r="O41" s="2">
+      <c r="O41" s="4">
         <v>7.3718749999998181</v>
       </c>
-      <c r="P41" s="2">
+      <c r="P41" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2732,46 +2733,46 @@
       <c r="B42" s="3">
         <v>41</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="4">
         <v>19287.316436419002</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="4">
         <v>17927</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="4">
         <v>16526.218461415177</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="4">
         <v>15588</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="4">
         <v>13961.080226946127</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="4">
         <v>15947</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="4">
         <v>12194.919475344504</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="4">
         <v>15635</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="4">
         <v>11059.530420743482</v>
       </c>
-      <c r="L42" s="2">
+      <c r="L42" s="4">
         <v>15349</v>
       </c>
-      <c r="M42" s="2">
+      <c r="M42" s="4">
         <v>9545.6783479420701</v>
       </c>
-      <c r="N42" s="2">
+      <c r="N42" s="4">
         <v>15818</v>
       </c>
-      <c r="O42" s="2">
+      <c r="O42" s="4">
         <v>7075.0156965349161</v>
       </c>
-      <c r="P42" s="2">
+      <c r="P42" s="4">
         <v>16665</v>
       </c>
     </row>
@@ -2782,46 +2783,46 @@
       <c r="B43" s="3">
         <v>42</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="4">
         <v>9393.7005026303814</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="4">
         <v>13446</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="4">
         <v>9395.7884556205245</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="4">
         <v>10982</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="4">
         <v>8351.8119605515967</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="4">
         <v>10972</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="4">
         <v>7266.0764056798653</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="4">
         <v>10331</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="4">
         <v>6096.8227312026429</v>
       </c>
-      <c r="L43" s="2">
+      <c r="L43" s="4">
         <v>9627</v>
       </c>
-      <c r="M43" s="2">
+      <c r="M43" s="4">
         <v>5512.1958939640317</v>
       </c>
-      <c r="N43" s="2">
+      <c r="N43" s="4">
         <v>9443</v>
       </c>
-      <c r="O43" s="2">
+      <c r="O43" s="4">
         <v>4630.3837477958004</v>
       </c>
-      <c r="P43" s="2">
+      <c r="P43" s="4">
         <v>9602</v>
       </c>
     </row>
@@ -2832,46 +2833,46 @@
       <c r="B44" s="3">
         <v>43</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="4">
         <v>3975.4985672588664</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="4">
         <v>12423</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="4">
         <v>3474.9323612906737</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="4">
         <v>11518</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="4">
         <v>3035.067505431085</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="4">
         <v>12393.999999999985</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="4">
         <v>2771.1485919153347</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="4">
         <v>12783.000000000015</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44" s="4">
         <v>2463.2431928136502</v>
       </c>
-      <c r="L44" s="2">
+      <c r="L44" s="4">
         <v>13048</v>
       </c>
-      <c r="M44" s="2">
+      <c r="M44" s="4">
         <v>2199.3242792978854</v>
       </c>
-      <c r="N44" s="2">
+      <c r="N44" s="4">
         <v>13599</v>
       </c>
-      <c r="O44" s="2">
+      <c r="O44" s="4">
         <v>1768.5499637927423</v>
       </c>
-      <c r="P44" s="2">
+      <c r="P44" s="4">
         <v>14519</v>
       </c>
     </row>
@@ -2882,46 +2883,46 @@
       <c r="B45" s="3">
         <v>44</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="4">
         <v>0</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="4">
         <v>982</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="4">
         <v>90.01158935935382</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="4">
         <v>2967</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="4">
         <v>45.005794679673272</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="4">
         <v>2731</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="4">
         <v>45.005794679673272</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45" s="4">
         <v>2361</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="4">
         <v>90.01158935935382</v>
       </c>
-      <c r="L45" s="2">
+      <c r="L45" s="4">
         <v>2167</v>
       </c>
-      <c r="M45" s="2">
+      <c r="M45" s="4">
         <v>45.005794679673272</v>
       </c>
-      <c r="N45" s="2">
+      <c r="N45" s="4">
         <v>2389</v>
       </c>
-      <c r="O45" s="2">
+      <c r="O45" s="4">
         <v>105.91363681283838</v>
       </c>
-      <c r="P45" s="2">
+      <c r="P45" s="4">
         <v>2567</v>
       </c>
     </row>
@@ -2932,46 +2933,46 @@
       <c r="B46" s="3">
         <v>45</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="4">
         <v>3940.9087488240839</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="4">
         <v>5001</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="4">
         <v>3356.0050172467818</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="4">
         <v>3916</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="4">
         <v>2916.528169750185</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="4">
         <v>4258</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="4">
         <v>2596.9086442981061</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46" s="4">
         <v>4554</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46" s="4">
         <v>2117.4793561199986</v>
       </c>
-      <c r="L46" s="2">
+      <c r="L46" s="4">
         <v>4879</v>
       </c>
-      <c r="M46" s="2">
+      <c r="M46" s="4">
         <v>1877.7647120309412</v>
       </c>
-      <c r="N46" s="2">
+      <c r="N46" s="4">
         <v>5393</v>
       </c>
-      <c r="O46" s="2">
+      <c r="O46" s="4">
         <v>1365.8407720985342</v>
       </c>
-      <c r="P46" s="2">
+      <c r="P46" s="4">
         <v>5996</v>
       </c>
     </row>
@@ -2982,46 +2983,46 @@
       <c r="B47" s="3">
         <v>46</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="4">
         <v>4318.4888326090004</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="4">
         <v>9304</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="4">
         <v>3833.4557942240062</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="4">
         <v>7262</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="4">
         <v>3349.229799164139</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="4">
         <v>6911</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="4">
         <v>2824.6516378492815</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47" s="4">
         <v>6189</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K47" s="4">
         <v>2421.12997529938</v>
       </c>
-      <c r="L47" s="2">
+      <c r="L47" s="4">
         <v>5577</v>
       </c>
-      <c r="M47" s="2">
+      <c r="M47" s="4">
         <v>2300.0734765344096</v>
       </c>
-      <c r="N47" s="2">
+      <c r="N47" s="4">
         <v>5493</v>
       </c>
-      <c r="O47" s="2">
+      <c r="O47" s="4">
         <v>1689.1416794338584</v>
       </c>
-      <c r="P47" s="2">
+      <c r="P47" s="4">
         <v>5492</v>
       </c>
     </row>
@@ -3032,46 +3033,46 @@
       <c r="B48" s="3">
         <v>47</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="4">
         <v>509.10656147008922</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="4">
         <v>1573</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="4">
         <v>316.43363627284634</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="4">
         <v>1080</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="4">
         <v>246.11505043443503</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="4">
         <v>1046</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="4">
         <v>175.79646459602554</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48" s="4">
         <v>963</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K48" s="4">
         <v>210.95575751523029</v>
       </c>
-      <c r="L48" s="2">
+      <c r="L48" s="4">
         <v>910</v>
       </c>
-      <c r="M48" s="2">
+      <c r="M48" s="4">
         <v>175.79646459602372</v>
       </c>
-      <c r="N48" s="2">
+      <c r="N48" s="4">
         <v>935</v>
       </c>
-      <c r="O48" s="2">
+      <c r="O48" s="4">
         <v>67.03705183261809</v>
       </c>
-      <c r="P48" s="2">
+      <c r="P48" s="4">
         <v>1005</v>
       </c>
     </row>
@@ -3082,46 +3083,46 @@
       <c r="B49" s="3">
         <v>48</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="4">
         <v>60042.623860184802</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="4">
         <v>145066</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="4">
         <v>56175.841187611572</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="4">
         <v>122476</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="4">
         <v>46346.909603671753</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="4">
         <v>128752</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="4">
         <v>38763.539168122457</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J49" s="4">
         <v>130117</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K49" s="4">
         <v>34051.542004286195</v>
       </c>
-      <c r="L49" s="2">
+      <c r="L49" s="4">
         <v>131042</v>
       </c>
-      <c r="M49" s="2">
+      <c r="M49" s="4">
         <v>30738.418998463778</v>
       </c>
-      <c r="N49" s="2">
+      <c r="N49" s="4">
         <v>136727</v>
       </c>
-      <c r="O49" s="2">
+      <c r="O49" s="4">
         <v>22305.416574310395</v>
       </c>
-      <c r="P49" s="2">
+      <c r="P49" s="4">
         <v>143858</v>
       </c>
     </row>
@@ -3132,46 +3133,46 @@
       <c r="B50" s="3">
         <v>49</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="4">
         <v>24271.116616449406</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="4">
         <v>24600</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="4">
         <v>21664.35180830743</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="4">
         <v>22014</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="4">
         <v>18411.345422230283</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="4">
         <v>24394</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="4">
         <v>16063.815040525165</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50" s="4">
         <v>26223</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K50" s="4">
         <v>14387.007625021477</v>
       </c>
-      <c r="L50" s="2">
+      <c r="L50" s="4">
         <v>28051</v>
       </c>
-      <c r="M50" s="2">
+      <c r="M50" s="4">
         <v>13213.242434168904</v>
       </c>
-      <c r="N50" s="2">
+      <c r="N50" s="4">
         <v>30625</v>
       </c>
-      <c r="O50" s="2">
+      <c r="O50" s="4">
         <v>10054.919773487258</v>
       </c>
-      <c r="P50" s="2">
+      <c r="P50" s="4">
         <v>33621</v>
       </c>
     </row>
@@ -3182,46 +3183,46 @@
       <c r="B51" s="3">
         <v>50</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="4">
         <v>39260.065795764327</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="4">
         <v>99449</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="4">
         <v>36836.055562286288</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="4">
         <v>105512</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="4">
         <v>32097.636781902751</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="4">
         <v>111709</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="4">
         <v>27400.42164308764</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51" s="4">
         <v>114256</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K51" s="4">
         <v>22950.428353684023</v>
       </c>
-      <c r="L51" s="2">
+      <c r="L51" s="4">
         <v>116629</v>
       </c>
-      <c r="M51" s="2">
+      <c r="M51" s="4">
         <v>19695.34066976828</v>
       </c>
-      <c r="N51" s="2">
+      <c r="N51" s="4">
         <v>122806</v>
       </c>
-      <c r="O51" s="2">
+      <c r="O51" s="4">
         <v>15288.885894955369</v>
       </c>
-      <c r="P51" s="2">
+      <c r="P51" s="4">
         <v>131970</v>
       </c>
     </row>
@@ -3232,46 +3233,46 @@
       <c r="B52" s="3">
         <v>51</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="4">
         <v>19062.461848938023</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="4">
         <v>22098</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="4">
         <v>18244.895485532878</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="4">
         <v>20045</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="4">
         <v>16456.976996972866</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="4">
         <v>21121</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="4">
         <v>13856.36828634009</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J52" s="4">
         <v>21376</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52" s="4">
         <v>11743.373708950996</v>
       </c>
-      <c r="L52" s="2">
+      <c r="L52" s="4">
         <v>21551</v>
       </c>
-      <c r="M52" s="2">
+      <c r="M52" s="4">
         <v>10564.972886945528</v>
       </c>
-      <c r="N52" s="2">
+      <c r="N52" s="4">
         <v>22525</v>
       </c>
-      <c r="O52" s="2">
+      <c r="O52" s="4">
         <v>8528.9129839126836</v>
       </c>
-      <c r="P52" s="2">
+      <c r="P52" s="4">
         <v>24073</v>
       </c>
     </row>
@@ -3282,46 +3283,46 @@
       <c r="B53" s="3">
         <v>52</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="4">
         <v>17762.962120530719</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="4">
         <v>41503</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="4">
         <v>13232.446286711434</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="4">
         <v>28247</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="4">
         <v>9764.6327770905336</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="4">
         <v>25953</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="4">
         <v>7437.5473956343485</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J53" s="4">
         <v>21624</v>
       </c>
-      <c r="K53" s="2">
+      <c r="K53" s="4">
         <v>5886.1571413302445</v>
       </c>
-      <c r="L53" s="2">
+      <c r="L53" s="4">
         <v>17692</v>
       </c>
-      <c r="M53" s="2">
+      <c r="M53" s="4">
         <v>5247.3493895580177</v>
       </c>
-      <c r="N53" s="2">
+      <c r="N53" s="4">
         <v>16022</v>
       </c>
-      <c r="O53" s="2">
+      <c r="O53" s="4">
         <v>1194.1142045629094</v>
       </c>
-      <c r="P53" s="2">
+      <c r="P53" s="4">
         <v>15679</v>
       </c>
     </row>
@@ -3332,46 +3333,46 @@
       <c r="B54" s="3">
         <v>53</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="4">
         <v>25161.172143836506</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="4">
         <v>26996</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="4">
         <v>22420.771595382364</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="4">
         <v>19597</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="4">
         <v>18526.438586403674</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="4">
         <v>18842</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="4">
         <v>15690.759210933698</v>
       </c>
-      <c r="J54" s="2">
+      <c r="J54" s="4">
         <v>16762</v>
       </c>
-      <c r="K54" s="2">
+      <c r="K54" s="4">
         <v>13346.597593878512</v>
       </c>
-      <c r="L54" s="2">
+      <c r="L54" s="4">
         <v>14413</v>
       </c>
-      <c r="M54" s="2">
+      <c r="M54" s="4">
         <v>11909.85337697377</v>
       </c>
-      <c r="N54" s="2">
+      <c r="N54" s="4">
         <v>12934</v>
       </c>
-      <c r="O54" s="2">
+      <c r="O54" s="4">
         <v>8211.1192298053065</v>
       </c>
-      <c r="P54" s="2">
+      <c r="P54" s="4">
         <v>11956</v>
       </c>
     </row>
@@ -3382,46 +3383,46 @@
       <c r="B55" s="3">
         <v>54</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="4">
         <v>136.76122931442296</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="4">
         <v>1026</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="4">
         <v>39.756171312332299</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="4">
         <v>894</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="4">
         <v>39.756171312332299</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="4">
         <v>834</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="4">
         <v>39.756171312328661</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J55" s="4">
         <v>701</v>
       </c>
-      <c r="K55" s="2">
+      <c r="K55" s="4">
         <v>39.756171312332299</v>
       </c>
-      <c r="L55" s="2">
+      <c r="L55" s="4">
         <v>569</v>
       </c>
-      <c r="M55" s="2">
+      <c r="M55" s="4">
         <v>39.756171312332299</v>
       </c>
-      <c r="N55" s="2">
+      <c r="N55" s="4">
         <v>516</v>
       </c>
-      <c r="O55" s="2">
+      <c r="O55" s="4">
         <v>7.4211519783057156</v>
       </c>
-      <c r="P55" s="2">
+      <c r="P55" s="4">
         <v>519</v>
       </c>
     </row>
@@ -3432,46 +3433,46 @@
       <c r="B56" s="3">
         <v>55</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="4">
         <v>16907.16840695616</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="4">
         <v>19393</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="4">
         <v>15820.409615762808</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="4">
         <v>19931</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="4">
         <v>13355.923695719364</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56" s="4">
         <v>22277</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I56" s="4">
         <v>11567.183915042653</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J56" s="4">
         <v>24256</v>
       </c>
-      <c r="K56" s="2">
+      <c r="K56" s="4">
         <v>10334.940955020924</v>
       </c>
-      <c r="L56" s="2">
+      <c r="L56" s="4">
         <v>26251</v>
       </c>
-      <c r="M56" s="2">
+      <c r="M56" s="4">
         <v>9500.1957240384654</v>
       </c>
-      <c r="N56" s="2">
+      <c r="N56" s="4">
         <v>28841</v>
       </c>
-      <c r="O56" s="2">
+      <c r="O56" s="4">
         <v>7386.3028010076669</v>
       </c>
-      <c r="P56" s="2">
+      <c r="P56" s="4">
         <v>31842</v>
       </c>
     </row>
@@ -3482,46 +3483,46 @@
       <c r="B57" s="3">
         <v>56</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="4">
         <v>9919.2134082134144</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="4">
         <v>14521</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="4">
         <v>9547.1108500811533</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="4">
         <v>13701</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="4">
         <v>8608.050766466622</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H57" s="4">
         <v>14685</v>
       </c>
-      <c r="I57" s="2">
+      <c r="I57" s="4">
         <v>7512.4806689163088</v>
       </c>
-      <c r="J57" s="2">
+      <c r="J57" s="4">
         <v>15155</v>
       </c>
-      <c r="K57" s="2">
+      <c r="K57" s="4">
         <v>6416.9105713659956</v>
       </c>
-      <c r="L57" s="2">
+      <c r="L57" s="4">
         <v>15524</v>
       </c>
-      <c r="M57" s="2">
+      <c r="M57" s="4">
         <v>5869.1255225908826</v>
       </c>
-      <c r="N57" s="2">
+      <c r="N57" s="4">
         <v>16283</v>
       </c>
-      <c r="O57" s="2">
+      <c r="O57" s="4">
         <v>4905.1542617582018</v>
       </c>
-      <c r="P57" s="2">
+      <c r="P57" s="4">
         <v>17430</v>
       </c>
     </row>
@@ -3532,46 +3533,46 @@
       <c r="B58" s="3">
         <v>57</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="4">
         <v>7365.8224643240828</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="4">
         <v>6636</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="4">
         <v>6476.682522633113</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="4">
         <v>7018</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58" s="4">
         <v>5540.7457419057755</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H58" s="4">
         <v>7483</v>
       </c>
-      <c r="I58" s="2">
+      <c r="I58" s="4">
         <v>4567.3714899493643</v>
       </c>
-      <c r="J58" s="2">
+      <c r="J58" s="4">
         <v>7705</v>
       </c>
-      <c r="K58" s="2">
+      <c r="K58" s="4">
         <v>3968.3719502838794</v>
       </c>
-      <c r="L58" s="2">
+      <c r="L58" s="4">
         <v>7882</v>
       </c>
-      <c r="M58" s="2">
+      <c r="M58" s="4">
         <v>3556.5597667638503</v>
       </c>
-      <c r="N58" s="2">
+      <c r="N58" s="4">
         <v>8315</v>
       </c>
-      <c r="O58" s="2">
+      <c r="O58" s="4">
         <v>2491.4637102961424</v>
       </c>
-      <c r="P58" s="2">
+      <c r="P58" s="4">
         <v>8851</v>
       </c>
     </row>
@@ -3582,46 +3583,46 @@
       <c r="B59" s="3">
         <v>58</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="4">
         <v>18152.797929046908</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="4">
         <v>21196</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="4">
         <v>13680.908974980237</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="4">
         <v>19401</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="4">
         <v>11075.021551174461</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H59" s="4">
         <v>19168</v>
       </c>
-      <c r="I59" s="2">
+      <c r="I59" s="4">
         <v>9725.544135275064</v>
       </c>
-      <c r="J59" s="2">
+      <c r="J59" s="4">
         <v>17805</v>
       </c>
-      <c r="K59" s="2">
+      <c r="K59" s="4">
         <v>8608.7352393583278</v>
       </c>
-      <c r="L59" s="2">
+      <c r="L59" s="4">
         <v>16387</v>
       </c>
-      <c r="M59" s="2">
+      <c r="M59" s="4">
         <v>7678.0611594276852</v>
       </c>
-      <c r="N59" s="2">
+      <c r="N59" s="4">
         <v>15835</v>
       </c>
-      <c r="O59" s="2">
+      <c r="O59" s="4">
         <v>4592.876584457641</v>
       </c>
-      <c r="P59" s="2">
+      <c r="P59" s="4">
         <v>15884</v>
       </c>
     </row>
@@ -3632,46 +3633,46 @@
       <c r="B60" s="3">
         <v>59</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="4">
         <v>13749.986717181862</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="4">
         <v>37682</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="4">
         <v>12096.300318579917</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="4">
         <v>27212</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60" s="4">
         <v>9850.4074255536834</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H60" s="4">
         <v>28089</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I60" s="4">
         <v>8668.3585344872263</v>
       </c>
-      <c r="J60" s="2">
+      <c r="J60" s="4">
         <v>27881</v>
       </c>
-      <c r="K60" s="2">
+      <c r="K60" s="4">
         <v>7171.0966058030608</v>
       </c>
-      <c r="L60" s="2">
+      <c r="L60" s="4">
         <v>27557</v>
       </c>
-      <c r="M60" s="2">
+      <c r="M60" s="4">
         <v>6107.2526038432843</v>
       </c>
-      <c r="N60" s="2">
+      <c r="N60" s="4">
         <v>28237</v>
       </c>
-      <c r="O60" s="2">
+      <c r="O60" s="4">
         <v>4190.1006412992137</v>
       </c>
-      <c r="P60" s="2">
+      <c r="P60" s="4">
         <v>29484</v>
       </c>
     </row>
@@ -3682,46 +3683,46 @@
       <c r="B61" s="3">
         <v>60</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="4">
         <v>8491.9061621864603</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="4">
         <v>7487</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="4">
         <v>10054.550956708197</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="4">
         <v>8820</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61" s="4">
         <v>9123.5740162722504</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61" s="4">
         <v>10221</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I61" s="4">
         <v>7727.1086056183412</v>
       </c>
-      <c r="J61" s="2">
+      <c r="J61" s="4">
         <v>11595</v>
       </c>
-      <c r="K61" s="2">
+      <c r="K61" s="4">
         <v>6749.5828181605903</v>
       </c>
-      <c r="L61" s="2">
+      <c r="L61" s="4">
         <v>13108</v>
       </c>
-      <c r="M61" s="2">
+      <c r="M61" s="4">
         <v>6190.9966538990266</v>
       </c>
-      <c r="N61" s="2">
+      <c r="N61" s="4">
         <v>15043</v>
       </c>
-      <c r="O61" s="2">
+      <c r="O61" s="4">
         <v>5774.6947987007588</v>
       </c>
-      <c r="P61" s="2">
+      <c r="P61" s="4">
         <v>17421</v>
       </c>
     </row>
@@ -3732,46 +3733,46 @@
       <c r="B62" s="3">
         <v>61</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="4">
         <v>536.04535229011162</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="4">
         <v>1234</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="4">
         <v>851.45325294699796</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="4">
         <v>1116</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62" s="4">
         <v>740.39413299738953</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H62" s="4">
         <v>1072</v>
       </c>
-      <c r="I62" s="2">
+      <c r="I62" s="4">
         <v>666.35471969765422</v>
       </c>
-      <c r="J62" s="2">
+      <c r="J62" s="4">
         <v>1002</v>
       </c>
-      <c r="K62" s="2">
+      <c r="K62" s="4">
         <v>518.27589309817267</v>
       </c>
-      <c r="L62" s="2">
+      <c r="L62" s="4">
         <v>930</v>
       </c>
-      <c r="M62" s="2">
+      <c r="M62" s="4">
         <v>444.23647979843372</v>
       </c>
-      <c r="N62" s="2">
+      <c r="N62" s="4">
         <v>926</v>
       </c>
-      <c r="O62" s="2">
+      <c r="O62" s="4">
         <v>472.86505294100061</v>
       </c>
-      <c r="P62" s="2">
+      <c r="P62" s="4">
         <v>954</v>
       </c>
     </row>
@@ -3782,46 +3783,46 @@
       <c r="B63" s="3">
         <v>62</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="4">
         <v>26.978268489308903</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="4">
         <v>227</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="4">
         <v>177.48860848229924</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="4">
         <v>294</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63" s="4">
         <v>177.48860848229924</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63" s="4">
         <v>270</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I63" s="4">
         <v>141.99088678583939</v>
       </c>
-      <c r="J63" s="2">
+      <c r="J63" s="4">
         <v>227</v>
       </c>
-      <c r="K63" s="2">
+      <c r="K63" s="4">
         <v>106.49316508937954</v>
       </c>
-      <c r="L63" s="2">
+      <c r="L63" s="4">
         <v>194</v>
       </c>
-      <c r="M63" s="2">
+      <c r="M63" s="4">
         <v>106.49316508937954</v>
       </c>
-      <c r="N63" s="2">
+      <c r="N63" s="4">
         <v>188</v>
       </c>
-      <c r="O63" s="2">
+      <c r="O63" s="4">
         <v>137.73116018226392</v>
       </c>
-      <c r="P63" s="2">
+      <c r="P63" s="4">
         <v>194</v>
       </c>
     </row>
@@ -3832,46 +3833,46 @@
       <c r="B64" s="3">
         <v>63</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="4">
         <v>48.432717678099834</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="4">
         <v>267</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="4">
         <v>53.222766679231427</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="4">
         <v>166</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G64" s="4">
         <v>53.222766679231427</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H64" s="4">
         <v>143</v>
       </c>
-      <c r="I64" s="2">
+      <c r="I64" s="4">
         <v>26.611383339614804</v>
       </c>
-      <c r="J64" s="2">
+      <c r="J64" s="4">
         <v>109</v>
       </c>
-      <c r="K64" s="2">
+      <c r="K64" s="4">
         <v>26.611383339615713</v>
       </c>
-      <c r="L64" s="2">
+      <c r="L64" s="4">
         <v>90</v>
       </c>
-      <c r="M64" s="2">
+      <c r="M64" s="4">
         <v>0</v>
       </c>
-      <c r="N64" s="2">
+      <c r="N64" s="4">
         <v>95</v>
       </c>
-      <c r="O64" s="2">
+      <c r="O64" s="4">
         <v>0</v>
       </c>
-      <c r="P64" s="2">
+      <c r="P64" s="4">
         <v>106</v>
       </c>
     </row>
@@ -3882,46 +3883,46 @@
       <c r="B65" s="3">
         <v>64</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="4">
         <v>14217.644563893002</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="4">
         <v>22282</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="4">
         <v>11676.694339208683</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="4">
         <v>17420</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65" s="4">
         <v>9561.3511618158082</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65" s="4">
         <v>16891</v>
       </c>
-      <c r="I65" s="2">
+      <c r="I65" s="4">
         <v>8165.22466473651</v>
       </c>
-      <c r="J65" s="2">
+      <c r="J65" s="4">
         <v>15192</v>
       </c>
-      <c r="K65" s="2">
+      <c r="K65" s="4">
         <v>6896.0187583007792</v>
       </c>
-      <c r="L65" s="2">
+      <c r="L65" s="4">
         <v>13378</v>
       </c>
-      <c r="M65" s="2">
+      <c r="M65" s="4">
         <v>6219.108941535058</v>
       </c>
-      <c r="N65" s="2">
+      <c r="N65" s="4">
         <v>12403</v>
       </c>
-      <c r="O65" s="2">
+      <c r="O65" s="4">
         <v>3882.9239364223904</v>
       </c>
-      <c r="P65" s="2">
+      <c r="P65" s="4">
         <v>11896</v>
       </c>
     </row>
@@ -3932,46 +3933,46 @@
       <c r="B66" s="3">
         <v>65</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="4">
         <v>520.18217562254176</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="4">
         <v>758</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="4">
         <v>822.96454943579556</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="4">
         <v>751</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66" s="4">
         <v>685.8037911964966</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H66" s="4">
         <v>750</v>
       </c>
-      <c r="I66" s="2">
+      <c r="I66" s="4">
         <v>582.93322251702193</v>
       </c>
-      <c r="J66" s="2">
+      <c r="J66" s="4">
         <v>746</v>
       </c>
-      <c r="K66" s="2">
+      <c r="K66" s="4">
         <v>480.06265383754726</v>
       </c>
-      <c r="L66" s="2">
+      <c r="L66" s="4">
         <v>743</v>
       </c>
-      <c r="M66" s="2">
+      <c r="M66" s="4">
         <v>411.48227471789869</v>
       </c>
-      <c r="N66" s="2">
+      <c r="N66" s="4">
         <v>800</v>
       </c>
-      <c r="O66" s="2">
+      <c r="O66" s="4">
         <v>416.39720188813953</v>
       </c>
-      <c r="P66" s="2">
+      <c r="P66" s="4">
         <v>864</v>
       </c>
     </row>
@@ -3982,46 +3983,46 @@
       <c r="B67" s="3">
         <v>66</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="4">
         <v>4523.0625998978358</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="4">
         <v>8123</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="4">
         <v>3866.5612075073732</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="4">
         <v>8339</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G67" s="4">
         <v>3337.452831743205</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67" s="4">
         <v>9570</v>
       </c>
-      <c r="I67" s="2">
+      <c r="I67" s="4">
         <v>2889.7457445581458</v>
       </c>
-      <c r="J67" s="2">
+      <c r="J67" s="4">
         <v>10815</v>
       </c>
-      <c r="K67" s="2">
+      <c r="K67" s="4">
         <v>2523.439945952181</v>
       </c>
-      <c r="L67" s="2">
+      <c r="L67" s="4">
         <v>12297</v>
       </c>
-      <c r="M67" s="2">
+      <c r="M67" s="4">
         <v>2279.2360802148687</v>
       </c>
-      <c r="N67" s="2">
+      <c r="N67" s="4">
         <v>14378</v>
       </c>
-      <c r="O67" s="2">
+      <c r="O67" s="4">
         <v>1666.9627212857231</v>
       </c>
-      <c r="P67" s="2">
+      <c r="P67" s="4">
         <v>16793</v>
       </c>
     </row>
@@ -4032,46 +4033,46 @@
       <c r="B68" s="3">
         <v>67</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="4">
         <v>186.79279279279217</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="4">
         <v>873</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="4">
         <v>284.63663663663647</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="4">
         <v>439</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68" s="4">
         <v>249.05705705705805</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H68" s="4">
         <v>423</v>
       </c>
-      <c r="I68" s="2">
+      <c r="I68" s="4">
         <v>177.89789789789756</v>
       </c>
-      <c r="J68" s="2">
+      <c r="J68" s="4">
         <v>396</v>
       </c>
-      <c r="K68" s="2">
+      <c r="K68" s="4">
         <v>142.31831831831732</v>
       </c>
-      <c r="L68" s="2">
+      <c r="L68" s="4">
         <v>381</v>
       </c>
-      <c r="M68" s="2">
+      <c r="M68" s="4">
         <v>142.31831831831914</v>
       </c>
-      <c r="N68" s="2">
+      <c r="N68" s="4">
         <v>404</v>
       </c>
-      <c r="O68" s="2">
+      <c r="O68" s="4">
         <v>125.12152152152157</v>
       </c>
-      <c r="P68" s="2">
+      <c r="P68" s="4">
         <v>454</v>
       </c>
     </row>
@@ -4082,14 +4083,605 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2D5D9A-2804-4A16-98CB-4F7DC332BADC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Input/controlTotals/FLUAM_Growth_Controls.xlsx
+++ b/Input/controlTotals/FLUAM_Growth_Controls.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Models\StateWide\TSM_Legacy\FLUAM\Input\controlTotals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5DD408-BC71-40AA-A6B7-288C3F6985A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39E9E3C-4177-4424-BED0-0FB792B4381B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0A4793C3-9AA2-4A53-B6D8-945A8B7F0D49}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0A4793C3-9AA2-4A53-B6D8-945A8B7F0D49}"/>
   </bookViews>
   <sheets>
     <sheet name="BEBR_Increments" sheetId="1" r:id="rId1"/>
     <sheet name="MPO_Increments" sheetId="2" r:id="rId2"/>
     <sheet name="BEBR_Increments_BigPicture" sheetId="3" r:id="rId3"/>
+    <sheet name="TripGen_Summary" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BEBR_Increments_BigPicture!$A$1:$AI$68</definedName>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="120">
   <si>
     <t>Name</t>
   </si>
@@ -370,6 +371,51 @@
   <si>
     <t>These average densities are required to allocate growth in these counties</t>
   </si>
+  <si>
+    <t xml:space="preserve">HHS </t>
+  </si>
+  <si>
+    <t>2015 HH</t>
+  </si>
+  <si>
+    <t>Seed Trip Table</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>BEBR -Increment</t>
+  </si>
+  <si>
+    <t>Trip Gen (new)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IPF Table (growth fac)</t>
+  </si>
+  <si>
+    <t>Trip rates</t>
+  </si>
+  <si>
+    <t>General rule of thumb:  8-11 trips / hh (even with only motorized rates)</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>trips / hh</t>
+  </si>
+  <si>
+    <t>Still low including trucks, commerical vehicles, intra-zonals</t>
+  </si>
+  <si>
+    <t>HHS (Parcels)</t>
+  </si>
+  <si>
+    <t>% Trip Growth</t>
+  </si>
+  <si>
+    <t>% HHS Growth</t>
+  </si>
 </sst>
 </file>
 
@@ -379,7 +425,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,12 +447,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -444,11 +484,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -460,10 +501,23 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -792,7 +846,7 @@
   <dimension ref="A1:V68"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="B1:D1048576"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5180,7 +5234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2D5D9A-2804-4A16-98CB-4F7DC332BADC}">
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -16420,4 +16474,426 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A256C690-F72D-42B6-8F0B-EAA9A15557FF}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="7">
+        <f>SUM(BEBR_Increments!C:C)</f>
+        <v>7840750</v>
+      </c>
+      <c r="C2" s="7">
+        <f>B2</f>
+        <v>7840750</v>
+      </c>
+      <c r="D2" s="7">
+        <v>48673226</v>
+      </c>
+      <c r="F2" s="14">
+        <f>D2/C2</f>
+        <v>6.2077257915377997</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="7" t="str">
+        <f>C1</f>
+        <v xml:space="preserve">HHS </v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2020</v>
+      </c>
+      <c r="B5" s="7">
+        <f>SUM(BEBR_Increments!E:E)</f>
+        <v>669507.09849711042</v>
+      </c>
+      <c r="C5" s="7">
+        <f>B5+C2</f>
+        <v>8510257.0984971114</v>
+      </c>
+      <c r="D5" s="7">
+        <v>52316484.07793773</v>
+      </c>
+      <c r="E5" s="7">
+        <v>58125232.184817061</v>
+      </c>
+      <c r="F5" s="14">
+        <f>E5/C5</f>
+        <v>6.8300207046719921</v>
+      </c>
+      <c r="G5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2025</v>
+      </c>
+      <c r="B6" s="7">
+        <f>SUM(BEBR_Increments!G:G)</f>
+        <v>602690.30283166701</v>
+      </c>
+      <c r="C6" s="7">
+        <f>B6+C5</f>
+        <v>9112947.4013287779</v>
+      </c>
+      <c r="D6" s="7">
+        <v>56202992.425494157</v>
+      </c>
+      <c r="E6" s="7">
+        <v>64866339.445617646</v>
+      </c>
+      <c r="F6" s="14">
+        <f>E6/C6</f>
+        <v>7.1180416816802161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2030</v>
+      </c>
+      <c r="B7" s="7">
+        <f>SUM(BEBR_Increments!I:I)</f>
+        <v>506875.39657064195</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" ref="C7:C11" si="0">B7+C6</f>
+        <v>9619822.7978994194</v>
+      </c>
+      <c r="D7" s="7">
+        <v>59703408.551194586</v>
+      </c>
+      <c r="E7" s="7">
+        <v>70425043.383764982</v>
+      </c>
+      <c r="F7" s="14">
+        <f>E7/C7</f>
+        <v>7.3208254313315386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2035</v>
+      </c>
+      <c r="B8" s="7">
+        <f>SUM(BEBR_Increments!K:K)</f>
+        <v>428021.24450105964</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" si="0"/>
+        <v>10047844.042400479</v>
+      </c>
+      <c r="D8" s="7">
+        <v>62806074.803931706</v>
+      </c>
+      <c r="E8" s="7">
+        <v>74796258.98368068</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" ref="F8:F11" si="1">E8/C8</f>
+        <v>7.4440107418119803</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2040</v>
+      </c>
+      <c r="B9" s="7">
+        <f>SUM(BEBR_Increments!M:M)</f>
+        <v>370801.02164008666</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" si="0"/>
+        <v>10418645.064040566</v>
+      </c>
+      <c r="D9" s="7">
+        <v>65671174.915904924</v>
+      </c>
+      <c r="E9" s="7">
+        <v>78773053.127259657</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" si="1"/>
+        <v>7.5607771109451578</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2045</v>
+      </c>
+      <c r="B10" s="7">
+        <f>SUM(BEBR_Increments!O:O)</f>
+        <v>332533.16545483971</v>
+      </c>
+      <c r="C10" s="7">
+        <f t="shared" si="0"/>
+        <v>10751178.229495406</v>
+      </c>
+      <c r="D10" s="7">
+        <v>68417663.623967513</v>
+      </c>
+      <c r="E10" s="7">
+        <v>82600626.133541465</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" si="1"/>
+        <v>7.6829371042264105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2050</v>
+      </c>
+      <c r="B11" s="7">
+        <f>SUM(BEBR_Increments!Q:Q)</f>
+        <v>239362.05963153631</v>
+      </c>
+      <c r="C11" s="7">
+        <f t="shared" si="0"/>
+        <v>10990540.289126942</v>
+      </c>
+      <c r="D11" s="7">
+        <v>70825051.475935012</v>
+      </c>
+      <c r="E11" s="7">
+        <v>85892321.786698073</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" si="1"/>
+        <v>7.8151136820518516</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="7">
+        <f>SUM(BEBR_Increments!E:E)</f>
+        <v>669507.09849711042</v>
+      </c>
+      <c r="C14" s="15">
+        <f>B14/C2</f>
+        <v>8.5388145075038793E-2</v>
+      </c>
+      <c r="D14" s="15">
+        <f>D5/D2-1</f>
+        <v>7.4851378824525305E-2</v>
+      </c>
+      <c r="E14" s="15">
+        <f>E5/D2-1</f>
+        <v>0.19419313165757823</v>
+      </c>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2025</v>
+      </c>
+      <c r="B15" s="7">
+        <f>SUM(BEBR_Increments!G:G)</f>
+        <v>602690.30283166701</v>
+      </c>
+      <c r="C15" s="15">
+        <f>B15/C5</f>
+        <v>7.0819282644010897E-2</v>
+      </c>
+      <c r="D15" s="15">
+        <f>D6/D5-1</f>
+        <v>7.4288408635537539E-2</v>
+      </c>
+      <c r="E15" s="15">
+        <f>E6/E5-1</f>
+        <v>0.11597557562206928</v>
+      </c>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2030</v>
+      </c>
+      <c r="B16" s="7">
+        <f>SUM(BEBR_Increments!I:I)</f>
+        <v>506875.39657064195</v>
+      </c>
+      <c r="C16" s="15">
+        <f t="shared" ref="C16:C20" si="2">B16/C6</f>
+        <v>5.5621455303992359E-2</v>
+      </c>
+      <c r="D16" s="15">
+        <f t="shared" ref="D16:E20" si="3">D7/D6-1</f>
+        <v>6.2281668193037598E-2</v>
+      </c>
+      <c r="E16" s="15">
+        <f t="shared" si="3"/>
+        <v>8.5694737604356641E-2</v>
+      </c>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2035</v>
+      </c>
+      <c r="B17" s="7">
+        <f>SUM(BEBR_Increments!K:K)</f>
+        <v>428021.24450105964</v>
+      </c>
+      <c r="C17" s="15">
+        <f t="shared" si="2"/>
+        <v>4.4493672440049745E-2</v>
+      </c>
+      <c r="D17" s="15">
+        <f t="shared" si="3"/>
+        <v>5.1967991912499345E-2</v>
+      </c>
+      <c r="E17" s="15">
+        <f t="shared" si="3"/>
+        <v>6.2069050864417274E-2</v>
+      </c>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2040</v>
+      </c>
+      <c r="B18" s="7">
+        <f>SUM(BEBR_Increments!M:M)</f>
+        <v>370801.02164008666</v>
+      </c>
+      <c r="C18" s="15">
+        <f t="shared" si="2"/>
+        <v>3.6903540707375518E-2</v>
+      </c>
+      <c r="D18" s="15">
+        <f t="shared" si="3"/>
+        <v>4.5618200483273252E-2</v>
+      </c>
+      <c r="E18" s="15">
+        <f t="shared" si="3"/>
+        <v>5.316835624688987E-2</v>
+      </c>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2045</v>
+      </c>
+      <c r="B19" s="7">
+        <f>SUM(BEBR_Increments!O:O)</f>
+        <v>332533.16545483971</v>
+      </c>
+      <c r="C19" s="15">
+        <f t="shared" si="2"/>
+        <v>3.1917121987633627E-2</v>
+      </c>
+      <c r="D19" s="15">
+        <f t="shared" si="3"/>
+        <v>4.1821829921264486E-2</v>
+      </c>
+      <c r="E19" s="15">
+        <f t="shared" si="3"/>
+        <v>4.8589877557472239E-2</v>
+      </c>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2050</v>
+      </c>
+      <c r="B20" s="7">
+        <f>SUM(BEBR_Increments!Q:Q)</f>
+        <v>239362.05963153631</v>
+      </c>
+      <c r="C20" s="15">
+        <f>B20/C10</f>
+        <v>2.2263797931919363E-2</v>
+      </c>
+      <c r="D20" s="15">
+        <f t="shared" si="3"/>
+        <v>3.5186642227346798E-2</v>
+      </c>
+      <c r="E20" s="15">
+        <f t="shared" si="3"/>
+        <v>3.9850734882262095E-2</v>
+      </c>
+      <c r="F20" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>